--- a/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9_磐石组.xlsx
+++ b/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9_磐石组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
   <si>
     <t>No</t>
   </si>
@@ -323,6 +323,22 @@
   </si>
   <si>
     <t>PM-176</t>
+  </si>
+  <si>
+    <t>数据中心优化</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙苏文</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1412,7 +1428,7 @@
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1678,7 +1694,7 @@
         <v>76</v>
       </c>
       <c r="O4" s="58" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P4" s="62" t="s">
         <v>78</v>
@@ -1699,24 +1715,58 @@
       <c r="X4" s="73"/>
     </row>
     <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="59">
+        <v>42842</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="59">
+        <v>42842</v>
+      </c>
       <c r="K5" s="58"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="62"/>
+      <c r="L5" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" s="62" t="s">
+        <v>79</v>
+      </c>
       <c r="S5" s="56"/>
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>

--- a/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9_磐石组.xlsx
+++ b/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9_磐石组.xlsx
@@ -345,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -526,6 +526,38 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -780,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,6 +1082,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="6" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1428,7 +1490,7 @@
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1652,67 +1714,67 @@
       <c r="W3" s="74"/>
       <c r="X3" s="73"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="51">
+    <row r="4" spans="1:24" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="90">
         <v>3</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="59">
+      <c r="H4" s="93">
         <v>42842</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="93">
         <v>42842</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="79" t="s">
+      <c r="K4" s="92"/>
+      <c r="L4" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="73"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="98"/>
     </row>
     <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="51">
@@ -5805,7 +5867,7 @@
     <hyperlink ref="S4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
